--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5604413333333333</v>
+        <v>4.520102666666667</v>
       </c>
       <c r="H2">
-        <v>1.681324</v>
+        <v>13.560308</v>
       </c>
       <c r="I2">
-        <v>0.9445773114790939</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="J2">
-        <v>0.9445773114790937</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N2">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q2">
-        <v>3.307013362467556</v>
+        <v>10.37357685866534</v>
       </c>
       <c r="R2">
-        <v>29.763120262208</v>
+        <v>93.36219172798802</v>
       </c>
       <c r="S2">
-        <v>0.03750679416260542</v>
+        <v>0.01571326643064251</v>
       </c>
       <c r="T2">
-        <v>0.0375067941626054</v>
+        <v>0.01571326643064251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5604413333333333</v>
+        <v>4.520102666666667</v>
       </c>
       <c r="H3">
-        <v>1.681324</v>
+        <v>13.560308</v>
       </c>
       <c r="I3">
-        <v>0.9445773114790939</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="J3">
-        <v>0.9445773114790937</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>334.775132</v>
       </c>
       <c r="O3">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P3">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q3">
-        <v>62.54060711497422</v>
+        <v>504.4059889622951</v>
       </c>
       <c r="R3">
-        <v>562.865464034768</v>
+        <v>4539.653900660656</v>
       </c>
       <c r="S3">
-        <v>0.7093100089911496</v>
+        <v>0.7640436661107467</v>
       </c>
       <c r="T3">
-        <v>0.7093100089911495</v>
+        <v>0.7640436661107469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5604413333333333</v>
+        <v>4.520102666666667</v>
       </c>
       <c r="H4">
-        <v>1.681324</v>
+        <v>13.560308</v>
       </c>
       <c r="I4">
-        <v>0.9445773114790939</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="J4">
-        <v>0.9445773114790937</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N4">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q4">
-        <v>17.43675134603511</v>
+        <v>140.6318584470636</v>
       </c>
       <c r="R4">
-        <v>156.930762114316</v>
+        <v>1265.686726023572</v>
       </c>
       <c r="S4">
-        <v>0.1977605083253389</v>
+        <v>0.213020628325438</v>
       </c>
       <c r="T4">
-        <v>0.1977605083253388</v>
+        <v>0.213020628325438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.098651</v>
       </c>
       <c r="I5">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="J5">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N5">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O5">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P5">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q5">
-        <v>0.1940376603324444</v>
+        <v>0.07546758751233335</v>
       </c>
       <c r="R5">
-        <v>1.746338942992</v>
+        <v>0.679208287611</v>
       </c>
       <c r="S5">
-        <v>0.002200695850969347</v>
+        <v>0.0001143137343671924</v>
       </c>
       <c r="T5">
-        <v>0.002200695850969347</v>
+        <v>0.0001143137343671924</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.098651</v>
       </c>
       <c r="I6">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="J6">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>334.775132</v>
       </c>
       <c r="O6">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P6">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q6">
         <v>3.669544616325777</v>
@@ -818,10 +818,10 @@
         <v>33.025901546932</v>
       </c>
       <c r="S6">
-        <v>0.04161847549727828</v>
+        <v>0.005558404108925201</v>
       </c>
       <c r="T6">
-        <v>0.04161847549727828</v>
+        <v>0.005558404108925202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.098651</v>
       </c>
       <c r="I7">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="J7">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N7">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O7">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P7">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q7">
         <v>1.023094273939889</v>
       </c>
       <c r="R7">
-        <v>9.207848465459001</v>
+        <v>9.207848465459</v>
       </c>
       <c r="S7">
-        <v>0.01160351717265857</v>
+        <v>0.001549721289880199</v>
       </c>
       <c r="T7">
-        <v>0.01160351717265857</v>
+        <v>0.001549721289880199</v>
       </c>
     </row>
   </sheetData>
